--- a/data/trans_orig/P14B30-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B30-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E3C766D-010D-439E-859A-6EB6B2D68FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9348B2EE-ED2F-44C0-AEA1-EE9B3073A0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B84C1B9F-A6B6-4306-A4A6-10FBBC33CCFE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{61136651-96B8-44C8-BF0F-64FA24F76909}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -75,28 +75,28 @@
     <t>75,46%</t>
   </si>
   <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
   </si>
   <si>
     <t>69,1%</t>
   </si>
   <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
   </si>
   <si>
     <t>72,58%</t>
   </si>
   <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>24,54%</t>
   </si>
   <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
   </si>
   <si>
     <t>30,9%</t>
   </si>
   <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
   </si>
   <si>
     <t>27,42%</t>
   </si>
   <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,7 +138,7 @@
     <t>75,53%</t>
   </si>
   <si>
-    <t>36,96%</t>
+    <t>33,55%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -147,19 +147,19 @@
     <t>38,27%</t>
   </si>
   <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
   </si>
   <si>
     <t>56,75%</t>
   </si>
   <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
   </si>
   <si>
     <t>24,47%</t>
@@ -168,25 +168,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>63,04%</t>
+    <t>66,45%</t>
   </si>
   <si>
     <t>61,73%</t>
   </si>
   <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
   </si>
   <si>
     <t>43,25%</t>
   </si>
   <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -198,55 +198,55 @@
     <t>75,49%</t>
   </si>
   <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
   </si>
   <si>
     <t>57,48%</t>
   </si>
   <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
   </si>
   <si>
     <t>67,01%</t>
   </si>
   <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
   </si>
   <si>
     <t>24,51%</t>
   </si>
   <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
   </si>
   <si>
     <t>42,52%</t>
   </si>
   <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
   </si>
   <si>
     <t>32,99%</t>
   </si>
   <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -258,7 +258,7 @@
     <t>15,65%</t>
   </si>
   <si>
-    <t>76,0%</t>
+    <t>74,09%</t>
   </si>
   <si>
     <t>47,35%</t>
@@ -270,16 +270,16 @@
     <t>33,46%</t>
   </si>
   <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
   </si>
   <si>
     <t>84,35%</t>
   </si>
   <si>
-    <t>24,0%</t>
+    <t>25,91%</t>
   </si>
   <si>
     <t>52,65%</t>
@@ -291,64 +291,64 @@
     <t>66,54%</t>
   </si>
   <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
   </si>
   <si>
     <t>53,61%</t>
   </si>
   <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
   </si>
   <si>
     <t>18,12%</t>
   </si>
   <si>
-    <t>79,69%</t>
+    <t>59,53%</t>
   </si>
   <si>
     <t>43,36%</t>
   </si>
   <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
   </si>
   <si>
     <t>46,39%</t>
   </si>
   <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
   </si>
   <si>
     <t>81,88%</t>
   </si>
   <si>
-    <t>20,31%</t>
+    <t>40,47%</t>
   </si>
   <si>
     <t>56,64%</t>
   </si>
   <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
   </si>
   <si>
     <t>43,39%</t>
   </si>
   <si>
-    <t>87,85%</t>
+    <t>88,29%</t>
   </si>
   <si>
     <t>0%</t>
@@ -360,13 +360,13 @@
     <t>33,8%</t>
   </si>
   <si>
-    <t>79,82%</t>
+    <t>76,1%</t>
   </si>
   <si>
     <t>56,61%</t>
   </si>
   <si>
-    <t>12,15%</t>
+    <t>11,71%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -375,61 +375,61 @@
     <t>66,2%</t>
   </si>
   <si>
-    <t>20,18%</t>
+    <t>23,9%</t>
   </si>
   <si>
     <t>43,22%</t>
   </si>
   <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
   </si>
   <si>
     <t>29,58%</t>
   </si>
   <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
   </si>
   <si>
     <t>38,36%</t>
   </si>
   <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
   </si>
   <si>
     <t>56,78%</t>
   </si>
   <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
   </si>
   <si>
     <t>70,42%</t>
   </si>
   <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
   </si>
   <si>
     <t>61,64%</t>
   </si>
   <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
   </si>
 </sst>
 </file>
@@ -841,7 +841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584BF8D2-9413-4146-BD47-109B65D97F89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78AF6B3D-EF41-44BF-8445-B4B9FBBE0B38}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1574,7 +1574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666A762A-BFC5-4F2A-AACB-286710D71600}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D07F3CB-DC99-4E68-9AD1-72E27D4F649F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14B30-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B30-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9348B2EE-ED2F-44C0-AEA1-EE9B3073A0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C7F339A-28F9-4A61-9DF3-8BC30C3B28B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{61136651-96B8-44C8-BF0F-64FA24F76909}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{93F845A0-7CEE-4B1A-B1DA-81995368B949}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="129">
   <si>
     <t>Población cuya cirrosis le limita en 2012 (Tasa respuesta: 0,66%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>75,46%</t>
   </si>
   <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
   </si>
   <si>
     <t>69,1%</t>
   </si>
   <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
   </si>
   <si>
     <t>72,58%</t>
   </si>
   <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>24,54%</t>
   </si>
   <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
   </si>
   <si>
     <t>30,9%</t>
   </si>
   <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
   </si>
   <si>
     <t>27,42%</t>
   </si>
   <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,7 +138,7 @@
     <t>75,53%</t>
   </si>
   <si>
-    <t>33,55%</t>
+    <t>36,84%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -147,208 +147,202 @@
     <t>38,27%</t>
   </si>
   <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
   </si>
   <si>
     <t>56,75%</t>
   </si>
   <si>
-    <t>31,19%</t>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
   </si>
   <si>
     <t>79,62%</t>
   </si>
   <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
   </si>
   <si>
     <t>20,38%</t>
   </si>
   <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
+    <t>48,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya cirrosis le limita en 2015 (Tasa respuesta: 0,52%)</t>
+    <t>Población cuya cirrosis le limita en 2016 (Tasa respuesta: 0,52%)</t>
   </si>
   <si>
     <t>15,65%</t>
   </si>
   <si>
-    <t>74,09%</t>
+    <t>75,19%</t>
   </si>
   <si>
     <t>47,35%</t>
   </si>
   <si>
-    <t>88,91%</t>
+    <t>89,25%</t>
   </si>
   <si>
     <t>33,46%</t>
   </si>
   <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
   </si>
   <si>
     <t>84,35%</t>
   </si>
   <si>
-    <t>25,91%</t>
+    <t>24,81%</t>
   </si>
   <si>
     <t>52,65%</t>
   </si>
   <si>
-    <t>11,09%</t>
+    <t>10,75%</t>
   </si>
   <si>
     <t>66,54%</t>
   </si>
   <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
   </si>
   <si>
     <t>53,61%</t>
   </si>
   <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
+    <t>83,34%</t>
   </si>
   <si>
     <t>18,12%</t>
   </si>
   <si>
-    <t>59,53%</t>
+    <t>74,45%</t>
   </si>
   <si>
     <t>43,36%</t>
   </si>
   <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
   </si>
   <si>
     <t>46,39%</t>
   </si>
   <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
+    <t>16,66%</t>
   </si>
   <si>
     <t>81,88%</t>
   </si>
   <si>
-    <t>40,47%</t>
+    <t>25,55%</t>
   </si>
   <si>
     <t>56,64%</t>
   </si>
   <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
   </si>
   <si>
     <t>43,39%</t>
   </si>
   <si>
-    <t>88,29%</t>
+    <t>87,24%</t>
   </si>
   <si>
     <t>0%</t>
@@ -360,13 +354,13 @@
     <t>33,8%</t>
   </si>
   <si>
-    <t>76,1%</t>
+    <t>79,6%</t>
   </si>
   <si>
     <t>56,61%</t>
   </si>
   <si>
-    <t>11,71%</t>
+    <t>12,76%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -375,61 +369,61 @@
     <t>66,2%</t>
   </si>
   <si>
-    <t>23,9%</t>
+    <t>20,4%</t>
   </si>
   <si>
     <t>43,22%</t>
   </si>
   <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
   </si>
   <si>
     <t>29,58%</t>
   </si>
   <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
   </si>
   <si>
     <t>38,36%</t>
   </si>
   <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
   </si>
   <si>
     <t>56,78%</t>
   </si>
   <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
   </si>
   <si>
     <t>70,42%</t>
   </si>
   <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
   </si>
   <si>
     <t>61,64%</t>
   </si>
   <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
   </si>
 </sst>
 </file>
@@ -841,7 +835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78AF6B3D-EF41-44BF-8445-B4B9FBBE0B38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E495BD3E-9686-4FEB-A5FB-B0C100E48E40}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1574,7 +1568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D07F3CB-DC99-4E68-9AD1-72E27D4F649F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4126E3-BF86-4A66-87DD-DE893CA0D6B4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1856,10 +1850,10 @@
         <v>86</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -1868,13 +1862,13 @@
         <v>981</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -1883,13 +1877,13 @@
         <v>8129</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1904,13 +1898,13 @@
         <v>6185</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>95</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -1919,10 +1913,10 @@
         <v>4434</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>34</v>
@@ -1934,13 +1928,13 @@
         <v>10619</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2008,13 +2002,13 @@
         <v>2763</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2026,10 +2020,10 @@
         <v>42</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -2038,13 +2032,13 @@
         <v>2763</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2059,10 +2053,10 @@
         <v>3604</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>34</v>
@@ -2077,7 +2071,7 @@
         <v>34</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -2089,10 +2083,10 @@
         <v>5411</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>34</v>
@@ -2163,13 +2157,13 @@
         <v>10703</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -2178,13 +2172,13 @@
         <v>4058</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -2193,13 +2187,13 @@
         <v>14760</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2214,13 +2208,13 @@
         <v>14061</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -2229,13 +2223,13 @@
         <v>9662</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M14" s="7">
         <v>22</v>
@@ -2244,13 +2238,13 @@
         <v>23723</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
